--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\はにーおーるどふぁっしょん\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,8 +419,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +465,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -802,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +887,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -928,6 +939,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB18"/>
+  <dimension ref="B2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1286,7 +1312,7 @@
       <c r="S3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -1298,7 +1324,7 @@
       <c r="W3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="28" t="s">
         <v>43</v>
       </c>
       <c r="Y3" s="10" t="s">
@@ -1326,15 +1352,15 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="30" t="s">
+      <c r="V4" s="33"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="29" t="s">
         <v>49</v>
       </c>
       <c r="Y4" s="20"/>
@@ -1366,13 +1392,13 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="31"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="30"/>
       <c r="Y5" s="3"/>
-      <c r="AA5" s="24"/>
+      <c r="AA5" s="42"/>
       <c r="AB5" t="s">
         <v>46</v>
       </c>
@@ -1384,11 +1410,11 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1400,13 +1426,13 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="31"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="30"/>
       <c r="Y6" s="3"/>
-      <c r="AA6" s="25"/>
+      <c r="AA6" s="24"/>
       <c r="AB6" t="s">
         <v>47</v>
       </c>
@@ -1434,11 +1460,11 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="31"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.45">
@@ -1462,11 +1488,11 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="31"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="30"/>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.45">
@@ -1492,11 +1518,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="31"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="30"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.45">
@@ -1506,8 +1532,8 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1515,18 +1541,18 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="31"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="30"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.45">
@@ -1549,14 +1575,14 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="31"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="30"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.45">
@@ -1577,16 +1603,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="31"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="30"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.45">
@@ -1612,11 +1638,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="31"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="30"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.45">
@@ -1642,11 +1668,11 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="31"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="30"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.45">
@@ -1672,11 +1698,11 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="31"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="30"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.45">
@@ -1702,11 +1728,11 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="31"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="30"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.45">
@@ -1732,11 +1758,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="31"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="30"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1758,16 +1784,20 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="32"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="31"/>
       <c r="Y18" s="4"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -816,7 +816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,9 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +899,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,19 +949,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1241,7 @@
   <dimension ref="B2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1312,7 +1315,7 @@
       <c r="S3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -1324,7 +1327,7 @@
       <c r="W3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Y3" s="10" t="s">
@@ -1352,19 +1355,19 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="29" t="s">
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="32" t="s">
         <v>49</v>
       </c>
       <c r="Y4" s="20"/>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" t="s">
         <v>45</v>
       </c>
@@ -1376,11 +1379,11 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1392,13 +1395,13 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="30"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="33"/>
       <c r="Y5" s="3"/>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" t="s">
         <v>46</v>
       </c>
@@ -1410,11 +1413,11 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1426,13 +1429,13 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="30"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="3"/>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="23"/>
       <c r="AB6" t="s">
         <v>47</v>
       </c>
@@ -1444,11 +1447,11 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1460,11 +1463,11 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="33"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.45">
@@ -1488,11 +1491,11 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.45">
@@ -1502,8 +1505,8 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1518,11 +1521,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="30"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.45">
@@ -1532,27 +1535,27 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="30"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.45">
@@ -1571,18 +1574,18 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="30"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.45">
@@ -1603,16 +1606,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.45">
@@ -1627,9 +1630,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1638,11 +1641,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.45">
@@ -1660,19 +1663,19 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="30"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="33"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.45">
@@ -1693,16 +1696,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="30"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="33"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.45">
@@ -1717,10 +1720,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1728,11 +1731,11 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="30"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.45">
@@ -1751,18 +1754,18 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="30"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1784,20 +1787,20 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="31"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="34"/>
       <c r="Y18" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\はにーおーるどふぁっしょん\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\createGame's\honey_old_fashion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ギミックの仕掛け</t>
     <rPh sb="5" eb="7">
       <t>シカ</t>
@@ -361,13 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>遅れ</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>β</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,6 +375,36 @@
     <t>キャラを追尾するカメラ</t>
     <rPh sb="4" eb="6">
       <t>ツイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI配置</t>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業未着手</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業遅延分</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -428,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +490,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -816,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,9 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +924,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,19 +974,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1272,7 @@
   <dimension ref="B2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1251,84 +1285,84 @@
   <sheetData>
     <row r="2" spans="2:28" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="U3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="W3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="Y3" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.45">
@@ -1352,21 +1386,21 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="29" t="s">
-        <v>49</v>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="Y4" s="20"/>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.45">
@@ -1374,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1392,15 +1426,15 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="30"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="33"/>
       <c r="Y5" s="3"/>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.45">
@@ -1408,16 +1442,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1426,15 +1460,15 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="30"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="3"/>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="23"/>
       <c r="AB6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.45">
@@ -1442,16 +1476,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1460,12 +1494,16 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="33"/>
       <c r="Y7" s="3"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
@@ -1488,11 +1526,11 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.45">
@@ -1500,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1518,11 +1556,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="30"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.45">
@@ -1530,29 +1568,29 @@
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="30"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.45">
@@ -1560,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
@@ -1571,26 +1609,26 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="30"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
@@ -1603,16 +1641,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.45">
@@ -1620,16 +1658,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1638,11 +1676,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.45">
@@ -1650,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
@@ -1660,19 +1698,19 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="30"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="33"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.45">
@@ -1680,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
@@ -1693,16 +1731,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="30"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="33"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.45">
@@ -1710,17 +1748,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1728,19 +1766,19 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="30"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="14" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
@@ -1751,26 +1789,26 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="30"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -1784,20 +1822,20 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="31"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="34"/>
       <c r="Y18" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\はにーおーるどふぁっしょん\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\createGame's\honey_old_fashion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -361,13 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>遅れ</t>
-    <rPh sb="0" eb="1">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>β</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,6 +379,26 @@
     <t>キャラを追尾するカメラ</t>
     <rPh sb="4" eb="6">
       <t>ツイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業遅延</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業未着手</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -428,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +484,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -816,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,9 +899,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +918,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,19 +968,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1269,7 @@
   <dimension ref="B2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1312,7 +1343,7 @@
       <c r="S3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="27" t="s">
         <v>38</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -1324,7 +1355,7 @@
       <c r="W3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27" t="s">
         <v>43</v>
       </c>
       <c r="Y3" s="10" t="s">
@@ -1352,19 +1383,19 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="36"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="V4" s="33"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="Y4" s="20"/>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="22"/>
       <c r="AB4" t="s">
         <v>45</v>
       </c>
@@ -1376,11 +1407,11 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1392,13 +1423,13 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="30"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="33"/>
       <c r="Y5" s="3"/>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" t="s">
         <v>46</v>
       </c>
@@ -1410,14 +1441,14 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1426,15 +1457,15 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="30"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="33"/>
       <c r="Y6" s="3"/>
-      <c r="AA6" s="24"/>
+      <c r="AA6" s="23"/>
       <c r="AB6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.45">
@@ -1444,14 +1475,14 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1460,12 +1491,16 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="30"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="33"/>
       <c r="Y7" s="3"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B8" s="16" t="s">
@@ -1488,11 +1523,11 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="30"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="33"/>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.45">
@@ -1502,8 +1537,8 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1518,11 +1553,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="30"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="33"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.45">
@@ -1532,27 +1567,27 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="30"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="33"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.45">
@@ -1571,23 +1606,23 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="30"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="33"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>14</v>
@@ -1603,16 +1638,16 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="30"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="33"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.45">
@@ -1627,9 +1662,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1638,11 +1673,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="30"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="33"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.45">
@@ -1660,19 +1695,19 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="30"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="33"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.45">
@@ -1693,16 +1728,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="30"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="33"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.45">
@@ -1717,10 +1752,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1728,11 +1763,11 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="30"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="33"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.45">
@@ -1751,18 +1786,18 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="30"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="33"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1784,20 +1819,20 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="31"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="34"/>
       <c r="Y18" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/document/スケジュール.xlsx
+++ b/document/スケジュール.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\createGame's\honey_old_fashion\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\はにーおーるどふぁっしょん\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -932,6 +932,24 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,24 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,7 +1269,7 @@
   <dimension ref="B2:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1383,15 +1383,15 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="36"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="32" t="s">
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="38" t="s">
         <v>48</v>
       </c>
       <c r="Y4" s="20"/>
@@ -1407,11 +1407,11 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1423,11 +1423,11 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="33"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="39"/>
       <c r="Y5" s="3"/>
       <c r="AA5" s="28"/>
       <c r="AB5" t="s">
@@ -1446,7 +1446,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="1"/>
@@ -1457,11 +1457,11 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="33"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="39"/>
       <c r="Y6" s="3"/>
       <c r="AA6" s="23"/>
       <c r="AB6" t="s">
@@ -1475,14 +1475,14 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1491,13 +1491,13 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="33"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="39"/>
       <c r="Y7" s="3"/>
-      <c r="AA7" s="46"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" t="s">
         <v>51</v>
       </c>
@@ -1523,11 +1523,11 @@
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="33"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="39"/>
       <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.45">
@@ -1537,8 +1537,8 @@
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1553,11 +1553,11 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="33"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="39"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.45">
@@ -1572,10 +1572,10 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="21"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="1"/>
@@ -1583,11 +1583,11 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="33"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="39"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.45">
@@ -1613,11 +1613,11 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="33"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="39"/>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.45">
@@ -1643,11 +1643,11 @@
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="33"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="39"/>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.45">
@@ -1662,9 +1662,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1673,11 +1673,11 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="33"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="39"/>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.45">
@@ -1703,11 +1703,11 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="33"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="39"/>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.45">
@@ -1733,11 +1733,11 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="33"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="39"/>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.45">
@@ -1752,9 +1752,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1763,11 +1763,11 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="33"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="39"/>
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.45">
@@ -1793,11 +1793,11 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="33"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="39"/>
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -1823,11 +1823,11 @@
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="34"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="40"/>
       <c r="Y18" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.45">
